--- a/runs/run626/NotionalETEOutput626.xlsx
+++ b/runs/run626/NotionalETEOutput626.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_468.MISSILE_ANGERMAX3_468</t>
+    <t>MISSILE_SOMERSAULT3_289.MISSILE_SOMERSAULT3_289</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1555.801333448061</v>
+        <v>-1573.44877152221</v>
       </c>
       <c r="J2">
-        <v>2049.147108708476</v>
+        <v>2000.116713251074</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1474.206363262913</v>
+        <v>-1528.479164424821</v>
       </c>
       <c r="J3">
-        <v>1906.090832348154</v>
+        <v>1921.740856158209</v>
       </c>
       <c r="K3">
-        <v>291.013458483108</v>
+        <v>309.2513647634316</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1495.603042632665</v>
+        <v>-1368.598508932132</v>
       </c>
       <c r="J4">
-        <v>1908.324307386254</v>
+        <v>1875.153055793768</v>
       </c>
       <c r="K4">
-        <v>603.3348041756193</v>
+        <v>590.2435898887643</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1351.071626105511</v>
+        <v>-1459.392449004692</v>
       </c>
       <c r="J5">
-        <v>1840.24065374492</v>
+        <v>1816.120855776848</v>
       </c>
       <c r="K5">
-        <v>851.9470655463991</v>
+        <v>898.8569808020304</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1314.756125716517</v>
+        <v>-1379.925006343227</v>
       </c>
       <c r="J6">
-        <v>1787.539368846889</v>
+        <v>1878.034278220524</v>
       </c>
       <c r="K6">
-        <v>1119.786827630664</v>
+        <v>1100.119452660819</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1351.307297520419</v>
+        <v>-1403.130229218703</v>
       </c>
       <c r="J7">
-        <v>1673.004389708317</v>
+        <v>1769.208320883353</v>
       </c>
       <c r="K7">
-        <v>1425.595336810405</v>
+        <v>1372.656432842232</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1270.98689425458</v>
+        <v>-1342.308909730103</v>
       </c>
       <c r="J8">
-        <v>1659.005213245419</v>
+        <v>1783.573700001906</v>
       </c>
       <c r="K8">
-        <v>1564.912024214229</v>
+        <v>1599.920385507709</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-101.3234621594007</v>
+        <v>-104.4502653734417</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1302.658200999343</v>
+        <v>-1287.707147164579</v>
       </c>
       <c r="J9">
-        <v>1627.278785486737</v>
+        <v>1682.707770150126</v>
       </c>
       <c r="K9">
-        <v>1872.260036849191</v>
+        <v>1793.670468311979</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>224.0317853394889</v>
+        <v>213.8446078679048</v>
       </c>
       <c r="G10">
-        <v>-84.34158061120563</v>
+        <v>-85.8159696990536</v>
       </c>
       <c r="H10">
-        <v>865.3906401124018</v>
+        <v>823.8582205953533</v>
       </c>
       <c r="I10">
-        <v>-1253.220044345686</v>
+        <v>-1249.547371426753</v>
       </c>
       <c r="J10">
-        <v>1590.589876030346</v>
+        <v>1552.394917490264</v>
       </c>
       <c r="K10">
-        <v>2037.012908132578</v>
+        <v>2063.941355464199</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>171.6113255518352</v>
+        <v>175.8648510457183</v>
       </c>
       <c r="G11">
-        <v>-69.47354028350863</v>
+        <v>-67.21071235564534</v>
       </c>
       <c r="H11">
-        <v>1025.025074320301</v>
+        <v>1035.519315066037</v>
       </c>
       <c r="I11">
-        <v>-1193.662305603845</v>
+        <v>-1242.50388587533</v>
       </c>
       <c r="J11">
-        <v>1587.735960980774</v>
+        <v>1586.689278646739</v>
       </c>
       <c r="K11">
-        <v>2120.036013338115</v>
+        <v>2194.760340697986</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.6560567444917</v>
+        <v>135.4550887989382</v>
       </c>
       <c r="G12">
-        <v>-51.89811836156028</v>
+        <v>-51.50801597238083</v>
       </c>
       <c r="H12">
-        <v>1168.996681385436</v>
+        <v>1179.096825294018</v>
       </c>
       <c r="I12">
-        <v>-1122.299965671286</v>
+        <v>-1144.446984279434</v>
       </c>
       <c r="J12">
-        <v>1452.345052672224</v>
+        <v>1437.882193187642</v>
       </c>
       <c r="K12">
-        <v>2350.406749554022</v>
+        <v>2368.84653615378</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.2582356096763</v>
+        <v>118.499618058352</v>
       </c>
       <c r="G13">
-        <v>-33.96645126501435</v>
+        <v>-32.70415582665252</v>
       </c>
       <c r="H13">
-        <v>1287.533163611526</v>
+        <v>1299.831165232599</v>
       </c>
       <c r="I13">
-        <v>-1185.268926178358</v>
+        <v>-1164.987245514922</v>
       </c>
       <c r="J13">
-        <v>1410.33265761792</v>
+        <v>1536.447767327373</v>
       </c>
       <c r="K13">
-        <v>2399.840177653405</v>
+        <v>2462.063066589295</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.3031835731251</v>
+        <v>104.643847080695</v>
       </c>
       <c r="G14">
-        <v>-17.86335911231508</v>
+        <v>-17.44479924468126</v>
       </c>
       <c r="H14">
-        <v>1365.631598639804</v>
+        <v>1270.804389304196</v>
       </c>
       <c r="I14">
-        <v>-1143.056029635413</v>
+        <v>-1139.229500906098</v>
       </c>
       <c r="J14">
-        <v>1370.45185584338</v>
+        <v>1457.888912925974</v>
       </c>
       <c r="K14">
-        <v>2723.004620862127</v>
+        <v>2662.012185912534</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.4624588497343</v>
+        <v>101.3827042361536</v>
       </c>
       <c r="G15">
-        <v>-0.9242410736517211</v>
+        <v>-0.9691265093826433</v>
       </c>
       <c r="H15">
-        <v>1419.686997616627</v>
+        <v>1358.215882873921</v>
       </c>
       <c r="I15">
-        <v>-1073.68045689471</v>
+        <v>-1024.17111581758</v>
       </c>
       <c r="J15">
-        <v>1340.306303772559</v>
+        <v>1382.179336084119</v>
       </c>
       <c r="K15">
-        <v>2826.674708892</v>
+        <v>2844.135621396452</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.16785517162283</v>
+        <v>89.53679078355583</v>
       </c>
       <c r="G16">
-        <v>15.79116286629341</v>
+        <v>15.65652138900663</v>
       </c>
       <c r="H16">
-        <v>1396.005677910259</v>
+        <v>1476.585997333784</v>
       </c>
       <c r="I16">
-        <v>-969.5215749679596</v>
+        <v>-1029.164288810182</v>
       </c>
       <c r="J16">
-        <v>1375.350089222866</v>
+        <v>1323.046172629569</v>
       </c>
       <c r="K16">
-        <v>2918.799873123859</v>
+        <v>2803.079365697939</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.86329850095653</v>
+        <v>87.35404663400114</v>
       </c>
       <c r="G17">
-        <v>31.20310761455555</v>
+        <v>30.52263118658916</v>
       </c>
       <c r="H17">
-        <v>1398.47342450248</v>
+        <v>1427.84815097225</v>
       </c>
       <c r="I17">
-        <v>-1014.597795034134</v>
+        <v>-929.7562545406573</v>
       </c>
       <c r="J17">
-        <v>1330.352710688694</v>
+        <v>1285.44902116045</v>
       </c>
       <c r="K17">
-        <v>3030.733426449382</v>
+        <v>2990.763698241597</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.65700158579163</v>
+        <v>84.67700199305452</v>
       </c>
       <c r="G18">
-        <v>47.86066774940902</v>
+        <v>49.42369591686401</v>
       </c>
       <c r="H18">
-        <v>1551.937681891976</v>
+        <v>1475.551341999038</v>
       </c>
       <c r="I18">
-        <v>-943.998293073946</v>
+        <v>-964.2184370863293</v>
       </c>
       <c r="J18">
-        <v>1278.234482750117</v>
+        <v>1208.9002320588</v>
       </c>
       <c r="K18">
-        <v>3088.544291569785</v>
+        <v>2929.843159224787</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.65548499445734</v>
+        <v>76.58006372877321</v>
       </c>
       <c r="G19">
-        <v>65.4130277596015</v>
+        <v>64.99644407694423</v>
       </c>
       <c r="H19">
-        <v>1529.392004532944</v>
+        <v>1527.177323644352</v>
       </c>
       <c r="I19">
-        <v>-907.0544988290392</v>
+        <v>-871.9014183065659</v>
       </c>
       <c r="J19">
-        <v>1193.680690641531</v>
+        <v>1204.812544247214</v>
       </c>
       <c r="K19">
-        <v>3038.746814228668</v>
+        <v>3007.411130939512</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.37133474402896</v>
+        <v>71.25582128239752</v>
       </c>
       <c r="G20">
-        <v>81.72888720629838</v>
+        <v>80.952815619874</v>
       </c>
       <c r="H20">
-        <v>1609.465973071526</v>
+        <v>1540.711880184379</v>
       </c>
       <c r="I20">
-        <v>-871.0859608610411</v>
+        <v>-868.8006645802061</v>
       </c>
       <c r="J20">
-        <v>1155.652994088488</v>
+        <v>1170.316264302341</v>
       </c>
       <c r="K20">
-        <v>3297.978440557152</v>
+        <v>3027.511446485522</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.60479348999594</v>
+        <v>69.33388064615144</v>
       </c>
       <c r="G21">
-        <v>100.3611749922399</v>
+        <v>100.6218667790555</v>
       </c>
       <c r="H21">
-        <v>1575.118227632785</v>
+        <v>1644.709218097668</v>
       </c>
       <c r="I21">
-        <v>-764.7997350990665</v>
+        <v>-789.8504580601829</v>
       </c>
       <c r="J21">
-        <v>1042.347967642096</v>
+        <v>1041.54003563869</v>
       </c>
       <c r="K21">
-        <v>3188.673269461226</v>
+        <v>3237.652422837854</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.45497633374085</v>
+        <v>67.58536980999325</v>
       </c>
       <c r="G22">
-        <v>111.4251658983254</v>
+        <v>119.2163810412613</v>
       </c>
       <c r="H22">
-        <v>1631.986222987022</v>
+        <v>1533.231138175536</v>
       </c>
       <c r="I22">
-        <v>-764.3722852595896</v>
+        <v>-753.7537075319798</v>
       </c>
       <c r="J22">
-        <v>1054.920656360677</v>
+        <v>1021.698249810306</v>
       </c>
       <c r="K22">
-        <v>3284.041368016645</v>
+        <v>3096.443176909213</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.90950976308037</v>
+        <v>66.25335641372384</v>
       </c>
       <c r="G23">
-        <v>125.8406683663771</v>
+        <v>137.0665414336956</v>
       </c>
       <c r="H23">
-        <v>1574.934360524779</v>
+        <v>1622.554580607434</v>
       </c>
       <c r="I23">
-        <v>-709.1017127698063</v>
+        <v>-703.0271466484598</v>
       </c>
       <c r="J23">
-        <v>974.4616121207072</v>
+        <v>996.5018139900802</v>
       </c>
       <c r="K23">
-        <v>3190.551966692803</v>
+        <v>3080.809665268845</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.67490997466509</v>
+        <v>60.5384767833886</v>
       </c>
       <c r="G24">
-        <v>150.3561378446556</v>
+        <v>151.0615679932662</v>
       </c>
       <c r="H24">
-        <v>1620.012309163357</v>
+        <v>1678.308265601734</v>
       </c>
       <c r="I24">
-        <v>-660.809880159443</v>
+        <v>-662.1932969229098</v>
       </c>
       <c r="J24">
-        <v>884.7061682096082</v>
+        <v>939.8698708319106</v>
       </c>
       <c r="K24">
-        <v>3094.85961391118</v>
+        <v>3210.552426440523</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.50191522464858</v>
+        <v>60.7685434253705</v>
       </c>
       <c r="G25">
-        <v>172.2002864888295</v>
+        <v>156.6233389643908</v>
       </c>
       <c r="H25">
-        <v>1751.267360910826</v>
+        <v>1675.066126590052</v>
       </c>
       <c r="I25">
-        <v>-622.7370850228826</v>
+        <v>-626.0110178479663</v>
       </c>
       <c r="J25">
-        <v>904.1382719649756</v>
+        <v>896.1999254688856</v>
       </c>
       <c r="K25">
-        <v>3064.740434037318</v>
+        <v>3111.40331935635</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.27619013258185</v>
+        <v>56.75037516055104</v>
       </c>
       <c r="G26">
-        <v>184.6400824652775</v>
+        <v>188.4461069248345</v>
       </c>
       <c r="H26">
-        <v>1745.006108208703</v>
+        <v>1629.599729523257</v>
       </c>
       <c r="I26">
-        <v>-570.5423814207625</v>
+        <v>-531.1239018888297</v>
       </c>
       <c r="J26">
-        <v>837.4633913266665</v>
+        <v>797.8844328440538</v>
       </c>
       <c r="K26">
-        <v>3083.678344033864</v>
+        <v>3114.158997770101</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.08587241494642</v>
+        <v>58.5339581838911</v>
       </c>
       <c r="G27">
-        <v>193.1313135670252</v>
+        <v>193.6311849307512</v>
       </c>
       <c r="H27">
-        <v>1791.188679362998</v>
+        <v>1691.715672267907</v>
       </c>
       <c r="I27">
-        <v>-512.7762789582915</v>
+        <v>-482.3459901070721</v>
       </c>
       <c r="J27">
-        <v>789.3958336015326</v>
+        <v>817.7749209271836</v>
       </c>
       <c r="K27">
-        <v>3039.551167549081</v>
+        <v>3002.784259603599</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.9900971006038</v>
+        <v>57.65162950390226</v>
       </c>
       <c r="G28">
-        <v>216.4903030844307</v>
+        <v>219.6468892638057</v>
       </c>
       <c r="H28">
-        <v>1753.197467218102</v>
+        <v>1686.755940925471</v>
       </c>
       <c r="I28">
-        <v>-422.4021410423445</v>
+        <v>-438.1344900379311</v>
       </c>
       <c r="J28">
-        <v>737.5326289991615</v>
+        <v>744.0178831416384</v>
       </c>
       <c r="K28">
-        <v>3075.694799421445</v>
+        <v>3018.284469933453</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.31182477377316</v>
+        <v>55.99074531213839</v>
       </c>
       <c r="G29">
-        <v>240.647340228251</v>
+        <v>221.2993735845393</v>
       </c>
       <c r="H29">
-        <v>1661.868519028851</v>
+        <v>1711.693135791257</v>
       </c>
       <c r="I29">
-        <v>-390.8190717811684</v>
+        <v>-397.8089507464733</v>
       </c>
       <c r="J29">
-        <v>667.0948355062507</v>
+        <v>695.3895501062233</v>
       </c>
       <c r="K29">
-        <v>2953.915542145669</v>
+        <v>3020.492903965486</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.69902541317364</v>
+        <v>55.12245877433201</v>
       </c>
       <c r="G30">
-        <v>253.575906232755</v>
+        <v>241.9784241989577</v>
       </c>
       <c r="H30">
-        <v>1837.528738151551</v>
+        <v>1765.69858666089</v>
       </c>
       <c r="I30">
-        <v>-336.7828758051936</v>
+        <v>-331.7574628933231</v>
       </c>
       <c r="J30">
-        <v>614.5513396057735</v>
+        <v>666.9903145747984</v>
       </c>
       <c r="K30">
-        <v>2680.973815380739</v>
+        <v>2704.44699673047</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.00238717333161</v>
+        <v>50.06719436008714</v>
       </c>
       <c r="G31">
-        <v>250.5643837427625</v>
+        <v>261.7484650451133</v>
       </c>
       <c r="H31">
-        <v>1788.896348707407</v>
+        <v>1794.394104329361</v>
       </c>
       <c r="I31">
-        <v>-265.5179566752284</v>
+        <v>-255.6129014343989</v>
       </c>
       <c r="J31">
-        <v>570.8115928144566</v>
+        <v>580.6613172699977</v>
       </c>
       <c r="K31">
-        <v>2754.869629140434</v>
+        <v>2728.40495211682</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.48497607756506</v>
+        <v>52.32912721813008</v>
       </c>
       <c r="G32">
-        <v>277.8691693676407</v>
+        <v>275.1928739547496</v>
       </c>
       <c r="H32">
-        <v>1751.609711521357</v>
+        <v>1753.91865030661</v>
       </c>
       <c r="I32">
-        <v>-216.8053827862927</v>
+        <v>-204.1340025089329</v>
       </c>
       <c r="J32">
-        <v>516.9642647335913</v>
+        <v>528.7887301632372</v>
       </c>
       <c r="K32">
-        <v>2583.646520985334</v>
+        <v>2466.66266741707</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.32764340058794</v>
+        <v>51.19761184419848</v>
       </c>
       <c r="G33">
-        <v>289.3073815407224</v>
+        <v>308.8792286806599</v>
       </c>
       <c r="H33">
-        <v>1715.581915951068</v>
+        <v>1731.425058406165</v>
       </c>
       <c r="I33">
-        <v>-151.8721429285588</v>
+        <v>-142.1814140125217</v>
       </c>
       <c r="J33">
-        <v>503.6432405911672</v>
+        <v>483.6174035298554</v>
       </c>
       <c r="K33">
-        <v>2309.655407404041</v>
+        <v>2475.523444148621</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.46199864014936</v>
+        <v>47.52365415644708</v>
       </c>
       <c r="G34">
-        <v>317.4851078783897</v>
+        <v>309.5810464271338</v>
       </c>
       <c r="H34">
-        <v>1891.129083360014</v>
+        <v>1853.556392540959</v>
       </c>
       <c r="I34">
-        <v>-82.71688083179212</v>
+        <v>-86.22492682931788</v>
       </c>
       <c r="J34">
-        <v>425.0280129498607</v>
+        <v>454.2073146890393</v>
       </c>
       <c r="K34">
-        <v>2189.843267888739</v>
+        <v>2152.529671507496</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.84419731450247</v>
+        <v>45.98572429758187</v>
       </c>
       <c r="G35">
-        <v>323.3228556219252</v>
+        <v>330.4403065461391</v>
       </c>
       <c r="H35">
-        <v>1858.271867795618</v>
+        <v>1828.367853567115</v>
       </c>
       <c r="I35">
-        <v>-18.20275894038823</v>
+        <v>-19.1958866427608</v>
       </c>
       <c r="J35">
-        <v>407.1884064320755</v>
+        <v>414.0060031233101</v>
       </c>
       <c r="K35">
-        <v>2042.324434546459</v>
+        <v>1946.535925303369</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.03459365829224</v>
+        <v>48.8425306113438</v>
       </c>
       <c r="G36">
-        <v>359.1072854833195</v>
+        <v>354.4936011920403</v>
       </c>
       <c r="H36">
-        <v>1752.223169343301</v>
+        <v>1868.387158760331</v>
       </c>
       <c r="I36">
-        <v>47.49270234776554</v>
+        <v>45.85601342808561</v>
       </c>
       <c r="J36">
-        <v>354.764318024125</v>
+        <v>343.5462348374834</v>
       </c>
       <c r="K36">
-        <v>1885.685885371954</v>
+        <v>1830.254188773578</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.57298385810113</v>
+        <v>44.3328134273299</v>
       </c>
       <c r="G37">
-        <v>358.4518784347624</v>
+        <v>355.7266611816778</v>
       </c>
       <c r="H37">
-        <v>1813.297206047691</v>
+        <v>1815.915068589311</v>
       </c>
       <c r="I37">
-        <v>109.7119286465129</v>
+        <v>120.2450704478146</v>
       </c>
       <c r="J37">
-        <v>305.6203991612448</v>
+        <v>284.4192742598484</v>
       </c>
       <c r="K37">
-        <v>1605.963524843028</v>
+        <v>1642.87204731536</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.30890133685164</v>
+        <v>47.449975189428</v>
       </c>
       <c r="G38">
-        <v>393.5724279463286</v>
+        <v>388.0424367318185</v>
       </c>
       <c r="H38">
-        <v>1788.49717929876</v>
+        <v>1881.424704682267</v>
       </c>
       <c r="I38">
-        <v>188.8448346279023</v>
+        <v>192.4192886305055</v>
       </c>
       <c r="J38">
-        <v>257.2123778141604</v>
+        <v>259.4935853982984</v>
       </c>
       <c r="K38">
-        <v>1394.274419403163</v>
+        <v>1409.607918138879</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.29754958978759</v>
+        <v>44.64234976765043</v>
       </c>
       <c r="G39">
-        <v>403.1507329769697</v>
+        <v>389.1907664034293</v>
       </c>
       <c r="H39">
-        <v>1907.87117567654</v>
+        <v>1797.502075623764</v>
       </c>
       <c r="I39">
-        <v>268.1194974556723</v>
+        <v>254.243777129208</v>
       </c>
       <c r="J39">
-        <v>195.5045634415664</v>
+        <v>203.9952362229969</v>
       </c>
       <c r="K39">
-        <v>1131.479888491793</v>
+        <v>1140.772606681834</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.00640478077784</v>
+        <v>42.60609909239564</v>
       </c>
       <c r="G40">
-        <v>426.3716842449794</v>
+        <v>414.6052575546075</v>
       </c>
       <c r="H40">
-        <v>1935.340224566125</v>
+        <v>1801.506481705743</v>
       </c>
       <c r="I40">
-        <v>328.2650387376821</v>
+        <v>322.9854777429348</v>
       </c>
       <c r="J40">
-        <v>154.5356502656863</v>
+        <v>144.0688163201328</v>
       </c>
       <c r="K40">
-        <v>935.4488776331683</v>
+        <v>878.2264724662371</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.93544447352223</v>
+        <v>45.02124788861677</v>
       </c>
       <c r="G41">
-        <v>420.7406637575995</v>
+        <v>420.2864088333186</v>
       </c>
       <c r="H41">
-        <v>1872.581128261082</v>
+        <v>1797.918060688447</v>
       </c>
       <c r="I41">
-        <v>420.6302478189156</v>
+        <v>388.477584760487</v>
       </c>
       <c r="J41">
-        <v>107.1303248204859</v>
+        <v>104.6623662858596</v>
       </c>
       <c r="K41">
-        <v>608.4926529030726</v>
+        <v>626.9249063797155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.42094755887388</v>
+        <v>41.58569704338554</v>
       </c>
       <c r="G42">
-        <v>431.7214631162482</v>
+        <v>425.3433091379247</v>
       </c>
       <c r="H42">
-        <v>1830.375512164369</v>
+        <v>1944.031036184663</v>
       </c>
       <c r="I42">
-        <v>461.0865606417813</v>
+        <v>459.0690400364437</v>
       </c>
       <c r="J42">
-        <v>52.99835560366315</v>
+        <v>54.86239476703631</v>
       </c>
       <c r="K42">
-        <v>337.2276910450789</v>
+        <v>341.1183728596255</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.87814009326763</v>
+        <v>42.58495245452428</v>
       </c>
       <c r="G43">
-        <v>480.960225734496</v>
+        <v>475.9282583519687</v>
       </c>
       <c r="H43">
-        <v>1874.295031056343</v>
+        <v>1961.989375059212</v>
       </c>
       <c r="I43">
-        <v>542.5723801641485</v>
+        <v>544.8862312182855</v>
       </c>
       <c r="J43">
-        <v>5.258231747741799</v>
+        <v>5.481814609189996</v>
       </c>
       <c r="K43">
-        <v>35.18902083634864</v>
+        <v>34.81386967421536</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.80849648892106</v>
+        <v>41.63508305064425</v>
       </c>
       <c r="G44">
-        <v>464.8728347535139</v>
+        <v>469.3721353560669</v>
       </c>
       <c r="H44">
-        <v>1912.24059206855</v>
+        <v>1853.387886902427</v>
       </c>
       <c r="I44">
-        <v>653.7312429082092</v>
+        <v>619.5889786302425</v>
       </c>
       <c r="J44">
-        <v>-43.51417817835705</v>
+        <v>-41.5676213728469</v>
       </c>
       <c r="K44">
-        <v>-277.4376112538823</v>
+        <v>-294.6788615827815</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.49815553959531</v>
+        <v>41.96635223200841</v>
       </c>
       <c r="G45">
-        <v>515.6719589286353</v>
+        <v>507.3837781153774</v>
       </c>
       <c r="H45">
-        <v>1932.111400849597</v>
+        <v>1833.399654180349</v>
       </c>
       <c r="I45">
-        <v>691.2957980177024</v>
+        <v>692.4554396878196</v>
       </c>
       <c r="J45">
-        <v>-88.81802256144471</v>
+        <v>-95.11825281145416</v>
       </c>
       <c r="K45">
-        <v>-619.6034267296521</v>
+        <v>-629.8658184731304</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.57954189768608</v>
+        <v>40.14657692847033</v>
       </c>
       <c r="G46">
-        <v>486.3214825346544</v>
+        <v>529.5279638084717</v>
       </c>
       <c r="H46">
-        <v>1916.434426162023</v>
+        <v>1885.262202339514</v>
       </c>
       <c r="I46">
-        <v>792.271669838184</v>
+        <v>787.7005326710349</v>
       </c>
       <c r="J46">
-        <v>-135.6528259756865</v>
+        <v>-134.4862356938853</v>
       </c>
       <c r="K46">
-        <v>-961.9163642811834</v>
+        <v>-962.6035697465443</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.72574810055726</v>
+        <v>41.72416187517074</v>
       </c>
       <c r="G47">
-        <v>548.3237324789561</v>
+        <v>518.7946295479703</v>
       </c>
       <c r="H47">
-        <v>1941.552732453383</v>
+        <v>1958.159605304431</v>
       </c>
       <c r="I47">
-        <v>874.3300173026673</v>
+        <v>896.962884536482</v>
       </c>
       <c r="J47">
-        <v>-191.810990425946</v>
+        <v>-196.7595123707065</v>
       </c>
       <c r="K47">
-        <v>-1299.288548025396</v>
+        <v>-1321.934283520472</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.11701091172513</v>
+        <v>39.94233882508311</v>
       </c>
       <c r="G48">
-        <v>524.9797163315661</v>
+        <v>538.8461833283951</v>
       </c>
       <c r="H48">
-        <v>1859.749256489443</v>
+        <v>2024.095457213845</v>
       </c>
       <c r="I48">
-        <v>958.9570703961225</v>
+        <v>1011.485006238408</v>
       </c>
       <c r="J48">
-        <v>-228.9248414455687</v>
+        <v>-241.2628086685194</v>
       </c>
       <c r="K48">
-        <v>-1720.22811545964</v>
+        <v>-1678.097421939531</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.70235099034604</v>
+        <v>40.32099315582879</v>
       </c>
       <c r="G49">
-        <v>545.3022175397255</v>
+        <v>568.4926083634571</v>
       </c>
       <c r="H49">
-        <v>1907.882338141052</v>
+        <v>2020.902541636569</v>
       </c>
       <c r="I49">
-        <v>1121.357532509256</v>
+        <v>1071.730560800924</v>
       </c>
       <c r="J49">
-        <v>-286.8041739992606</v>
+        <v>-297.5677679704031</v>
       </c>
       <c r="K49">
-        <v>-2166.932214049759</v>
+        <v>-2199.77231245881</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.11884961137432</v>
+        <v>40.12181907490773</v>
       </c>
       <c r="G50">
-        <v>555.7821012864811</v>
+        <v>578.0483167603347</v>
       </c>
       <c r="H50">
-        <v>1902.331278793205</v>
+        <v>1961.584781216249</v>
       </c>
       <c r="I50">
-        <v>1109.226901977648</v>
+        <v>1207.611052936544</v>
       </c>
       <c r="J50">
-        <v>-322.3553759259734</v>
+        <v>-321.0644975663936</v>
       </c>
       <c r="K50">
-        <v>-2586.318201242004</v>
+        <v>-2492.363363264435</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.81461373622255</v>
+        <v>37.31671120204349</v>
       </c>
       <c r="G51">
-        <v>583.7511188402362</v>
+        <v>622.0326169791451</v>
       </c>
       <c r="H51">
-        <v>1980.343921605124</v>
+        <v>1970.073933885388</v>
       </c>
       <c r="I51">
-        <v>1297.508616750709</v>
+        <v>1301.361848511118</v>
       </c>
       <c r="J51">
-        <v>-395.3319517030238</v>
+        <v>-375.8115113487512</v>
       </c>
       <c r="K51">
-        <v>-2805.269187763083</v>
+        <v>-2870.001038233061</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.41854222020717</v>
+        <v>39.0383503622634</v>
       </c>
       <c r="G52">
-        <v>627.4307771405711</v>
+        <v>607.3764643319595</v>
       </c>
       <c r="H52">
-        <v>1965.198422517122</v>
+        <v>1875.175230191519</v>
       </c>
       <c r="I52">
-        <v>1327.255898580925</v>
+        <v>1294.751058578966</v>
       </c>
       <c r="J52">
-        <v>-441.1759396984228</v>
+        <v>-444.3899843234889</v>
       </c>
       <c r="K52">
-        <v>-3203.271271758673</v>
+        <v>-3338.705557228308</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.30858060196409</v>
+        <v>37.85723648765888</v>
       </c>
       <c r="G53">
-        <v>621.1969142608384</v>
+        <v>649.6931318267253</v>
       </c>
       <c r="H53">
-        <v>2028.812935459582</v>
+        <v>1916.030907897307</v>
       </c>
       <c r="I53">
-        <v>1486.359664477125</v>
+        <v>1399.137845743641</v>
       </c>
       <c r="J53">
-        <v>-458.4353168676375</v>
+        <v>-475.2010262186518</v>
       </c>
       <c r="K53">
-        <v>-3988.785438299798</v>
+        <v>-3676.298130897484</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.45949826115149</v>
+        <v>36.35793303150949</v>
       </c>
       <c r="G54">
-        <v>641.8485547272221</v>
+        <v>673.2900915799989</v>
       </c>
       <c r="H54">
-        <v>1893.703975267556</v>
+        <v>1922.041695474275</v>
       </c>
       <c r="I54">
-        <v>1597.088020831513</v>
+        <v>1621.223988500181</v>
       </c>
       <c r="J54">
-        <v>-510.8984442241354</v>
+        <v>-517.195914308546</v>
       </c>
       <c r="K54">
-        <v>-4266.097390067459</v>
+        <v>-4347.659079365932</v>
       </c>
     </row>
   </sheetData>
